--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-medication-category-injection-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-medication-category-injection-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -110,7 +110,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/merit9-category</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCategoryMERIT9_CS</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/CodeSystem/JHSI0001</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-medication-category-injection-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-medication-category-injection-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-medication-category-injection-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-medication-category-injection-vs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -26,7 +26,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCategoryInjeciton_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCategoryInjeciton_VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -50,16 +50,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -110,10 +113,10 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCategoryMERIT9_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JHSI0001</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCategoryMERIT9_CS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JHSI0001</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/v2-0482</t>
@@ -312,68 +315,70 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -395,28 +400,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -438,28 +443,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -481,28 +486,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-medication-category-injection-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-medication-category-injection-vs.xlsx
@@ -7,15 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Medicati" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from JP Core Medicati 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from JP_MedicationCat" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JHSI0001" r:id="rId5" sheetId="3"/>
     <sheet name="Include from orderType" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright Japanese  Association of Healthcare Information Systems Industry(JAHIS)  一般社団法人保健医療福祉情報システム工業会 &amp; Japan Association of Medical Informatics (JAMI)  一般社団法人日本医療情報学会 &amp; HL7</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -370,15 +373,15 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -400,28 +403,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -443,28 +446,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -486,28 +489,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-medication-category-injection-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-medication-category-injection-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
